--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43643</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43369</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44956</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43873</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43941</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44907</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>44916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>45021</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43402</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43437</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43447</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43487</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43539</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43560</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43585</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43643</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43369</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44956</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43873</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43941</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44907</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>44916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>45021</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43402</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43437</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43447</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43487</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43539</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43560</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43585</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43643</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43369</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44956</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43873</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43941</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44907</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>44916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>45021</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43402</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43437</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43447</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43487</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43539</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43560</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43585</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43643</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,849 +750,880 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>A 24922-2019</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>43599</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Järpe
+Tretåig hackspett
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 24922-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 24922-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 24922-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 24922-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 24922-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 24922-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>A 47263-2018</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>43369</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>8.1</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>2</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Leptoporus mollis
 Ullticka
 Blodticka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 47263-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 47263-2018.png")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 47263-2018.docx")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 47263-2018.docx")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 47263-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 47263-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 62195-2018</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C6" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Tretåig hackspett
 Violettgrå tagellav</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 62195-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 62195-2018.png")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 62195-2018.docx")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 62195-2018.docx")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 62195-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 62195-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 66918-2018</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>43438</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>12</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>3</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Mörk husmossa
 Strutbräken</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 66918-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 66918-2018.png")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 66918-2018.docx")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 66918-2018.docx")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 66918-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 66918-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 4479-2023</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44956</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>6.2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Långskägg
 Plattlummer
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 4479-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 4479-2023.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 4479-2023.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 4479-2023.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 4479-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 4479-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 7842-2020</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>43873</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 7842-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 7842-2020.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 7842-2020.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 7842-2020.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 7842-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 7842-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 19687-2020</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>43941</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>5.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 19687-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 19687-2020.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 19687-2020.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 19687-2020.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 19687-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 19687-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 59480-2022</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44907</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>0.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Korallrot</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 59480-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 59480-2022.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 59480-2022.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 59480-2022.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 59480-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 59480-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 61508-2022</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44916</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>4.2</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Lundsångare</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 61508-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 61508-2022.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 61508-2022.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 61508-2022.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 61508-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 61508-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 15734-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45021</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>2.6</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Skrovlig taggsvamp</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 15734-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 15734-2023.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 15734-2023.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 15734-2023.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 15734-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 15734-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 41460-2018</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>43349</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 47505-2018</t>
+          <t>A 41460-2018</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43368</v>
+        <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1605,7 +1636,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1642,14 +1673,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 52807-2018</t>
+          <t>A 47505-2018</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43389</v>
+        <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1662,7 +1693,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1699,14 +1730,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 56712-2018</t>
+          <t>A 52807-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43402</v>
+        <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1719,7 +1750,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1756,14 +1787,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 65361-2018</t>
+          <t>A 56712-2018</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43424</v>
+        <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1776,7 +1807,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1813,14 +1844,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 66328-2018</t>
+          <t>A 65361-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43427</v>
+        <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1833,7 +1864,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1870,14 +1901,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 65579-2018</t>
+          <t>A 66328-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43433</v>
+        <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1890,7 +1921,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1927,14 +1958,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 67696-2018</t>
+          <t>A 65579-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1947,7 +1978,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>19.1</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1984,14 +2015,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 68252-2018</t>
+          <t>A 67696-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43437</v>
+        <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2004,7 +2035,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>19.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2041,14 +2072,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 68190-2018</t>
+          <t>A 68252-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2061,7 +2092,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2098,14 +2129,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 67970-2018</t>
+          <t>A 68190-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43440</v>
+        <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2118,7 +2149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2155,14 +2186,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 70318-2018</t>
+          <t>A 67970-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43445</v>
+        <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2175,7 +2206,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2212,14 +2243,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 69342-2018</t>
+          <t>A 70318-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43446</v>
+        <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2232,7 +2263,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2269,14 +2300,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 70364-2018</t>
+          <t>A 69342-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2289,7 +2320,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2326,14 +2357,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 69662-2018</t>
+          <t>A 70364-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43447</v>
+        <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2346,7 +2377,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2383,14 +2414,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 69852-2018</t>
+          <t>A 69662-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2403,7 +2434,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2440,14 +2471,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 71681-2018</t>
+          <t>A 69852-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43452</v>
+        <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2460,7 +2491,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2497,14 +2528,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 71246-2018</t>
+          <t>A 71681-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43453</v>
+        <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2548,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2554,14 +2585,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 72242-2018</t>
+          <t>A 71246-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43455</v>
+        <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2574,7 +2605,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2611,14 +2642,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 841-2019</t>
+          <t>A 72242-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2631,7 +2662,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2668,14 +2699,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 4896-2019</t>
+          <t>A 841-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43487</v>
+        <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2688,7 +2719,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2725,14 +2756,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7029-2019</t>
+          <t>A 4896-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43495</v>
+        <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2745,7 +2776,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2782,14 +2813,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 8242-2019</t>
+          <t>A 7029-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43496</v>
+        <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,13 +2832,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2844,14 +2870,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7643-2019</t>
+          <t>A 8242-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43500</v>
+        <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2863,8 +2889,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2901,14 +2932,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 15407-2019</t>
+          <t>A 7643-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43539</v>
+        <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2921,7 +2952,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2958,14 +2989,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18591-2019</t>
+          <t>A 15407-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43560</v>
+        <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2977,13 +3008,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3020,14 +3046,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20714-2019</t>
+          <t>A 18591-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43573</v>
+        <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3039,8 +3065,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3077,14 +3108,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22156-2019</t>
+          <t>A 20714-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43585</v>
+        <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3097,7 +3128,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.2</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3134,14 +3165,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23226-2019</t>
+          <t>A 22156-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43592</v>
+        <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3154,7 +3185,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>6.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3191,14 +3222,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24386-2019</t>
+          <t>A 23226-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43599</v>
+        <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3248,14 +3279,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24922-2019</t>
+          <t>A 24386-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3268,7 +3299,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3312,7 +3343,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3369,7 +3400,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3426,7 +3457,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3483,7 +3514,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3540,7 +3571,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3597,7 +3628,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3654,7 +3685,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3711,7 +3742,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3768,7 +3799,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3825,7 +3856,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3882,7 +3913,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3944,7 +3975,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4001,7 +4032,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4058,7 +4089,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4115,7 +4146,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4172,7 +4203,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4229,7 +4260,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4286,7 +4317,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4343,7 +4374,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4400,7 +4431,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4457,7 +4488,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4514,7 +4545,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4571,7 +4602,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4628,7 +4659,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4685,7 +4716,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4742,7 +4773,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4799,7 +4830,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4856,7 +4887,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4913,7 +4944,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4970,7 +5001,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5027,7 +5058,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5084,7 +5115,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5141,7 +5172,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5198,7 +5229,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5255,7 +5286,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5312,7 +5343,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5369,7 +5400,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5426,7 +5457,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5483,7 +5514,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5540,7 +5571,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5597,7 +5628,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5654,7 +5685,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5716,7 +5747,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5773,7 +5804,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5830,7 +5861,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5887,7 +5918,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5944,7 +5975,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6001,7 +6032,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6058,7 +6089,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6115,7 +6146,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6172,7 +6203,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6229,7 +6260,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6286,7 +6317,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6343,7 +6374,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6400,7 +6431,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6457,7 +6488,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6514,7 +6545,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6571,7 +6602,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6628,7 +6659,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6685,7 +6716,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6742,7 +6773,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6799,7 +6830,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6856,7 +6887,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6913,7 +6944,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6970,7 +7001,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7027,7 +7058,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7084,7 +7115,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7141,7 +7172,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7198,7 +7229,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7255,7 +7286,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7312,7 +7343,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7369,7 +7400,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7426,7 +7457,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7483,7 +7514,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7540,7 +7571,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7597,7 +7628,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7654,7 +7685,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7711,7 +7742,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7768,7 +7799,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7825,7 +7856,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7882,7 +7913,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7939,7 +7970,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7996,7 +8027,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8053,7 +8084,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8110,7 +8141,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8167,7 +8198,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8224,7 +8255,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8281,7 +8312,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8343,7 +8374,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8400,7 +8431,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8457,7 +8488,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8514,7 +8545,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8571,7 +8602,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8628,7 +8659,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8685,7 +8716,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8742,7 +8773,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8799,7 +8830,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8856,7 +8887,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8913,7 +8944,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +9001,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9027,7 +9058,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9084,7 +9115,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9141,7 +9172,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9198,7 +9229,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9286,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9343,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9400,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9462,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9519,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9576,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9633,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9690,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9747,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9804,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9861,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9918,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9975,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10032,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10089,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10146,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10203,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10260,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10317,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10374,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10431,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10488,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10545,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10571,7 +10602,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -565,59 +565,152 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>A 24922-2019</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>43599</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Blackticka
+Rynkskinn
+Ulltickeporing
+Gammelgransskål
+Garnlav
+Granticka
+Järpe
+Tretåig hackspett
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 24922-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 24922-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 24922-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 24922-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 24922-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 24922-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>A 32165-2019</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B3" s="1" t="n">
         <v>43643</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="C3" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>4.7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>7</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Tretåig hackspett
@@ -628,91 +721,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 32165-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 32165-2019.png")</f>
         <v/>
       </c>
-      <c r="U2">
+      <c r="U3">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/knärot/A 32165-2019.png")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 32165-2019.docx")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 32165-2019.docx")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 32165-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 32165-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 26207-2019</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>43609</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>16</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>4</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -722,119 +815,31 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 26207-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 26207-2019.png")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 26207-2019.docx")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 26207-2019.docx")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 26207-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 26207-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 24922-2019</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>43599</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Järpe
-Tretåig hackspett
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 24922-2019.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 24922-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 24922-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 24922-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 24922-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 24922-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -845,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2250,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2307,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2364,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2421,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2478,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2535,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2592,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2649,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2763,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2820,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2877,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3053,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3975,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4032,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4089,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4146,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4203,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4260,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4317,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4374,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4431,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4488,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4545,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4602,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4659,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4716,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4773,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5861,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5918,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5975,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6089,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6146,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6203,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6260,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6317,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6374,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6431,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6488,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6545,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6602,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6659,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6716,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6773,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6830,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6887,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6944,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7001,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7058,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7115,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7172,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7229,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7286,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7343,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7400,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7457,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7514,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7571,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7628,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7685,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7742,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7799,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7856,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7913,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7970,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8084,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8141,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8198,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8255,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8312,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8374,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8431,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8488,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8545,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8602,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8659,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8716,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8773,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8830,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8887,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8944,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9001,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9115,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9172,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9229,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9286,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9343,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9400,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9462,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9519,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9576,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9633,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9690,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9747,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9804,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9861,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9918,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9975,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10032,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10089,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10146,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10203,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10260,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10317,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10374,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10431,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10488,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10545,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10602,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 24922-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 24922-2019.xlsx", "A 24922-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 24922-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 24922-2019.png", "A 24922-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 24922-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 24922-2019.docx", "A 24922-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 24922-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 24922-2019.docx", "A 24922-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 24922-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 24922-2019.docx", "A 24922-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 24922-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 24922-2019.docx", "A 24922-2019")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 32165-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 32165-2019.xlsx", "A 32165-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 32165-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 32165-2019.png", "A 32165-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/knärot/A 32165-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/knärot/A 32165-2019.png", "A 32165-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 32165-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 32165-2019.docx", "A 32165-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 32165-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 32165-2019.docx", "A 32165-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 32165-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 32165-2019.docx", "A 32165-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 32165-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 32165-2019.docx", "A 32165-2019")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,27 +816,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 26207-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 26207-2019.xlsx", "A 26207-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 26207-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 26207-2019.png", "A 26207-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 26207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 26207-2019.docx", "A 26207-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 26207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 26207-2019.docx", "A 26207-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 26207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 26207-2019.docx", "A 26207-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 26207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 26207-2019.docx", "A 26207-2019")</f>
         <v/>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -903,27 +903,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 47263-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 47263-2018.xlsx", "A 47263-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 47263-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 47263-2018.png", "A 47263-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 47263-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 47263-2018.docx", "A 47263-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 47263-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 47263-2018.docx", "A 47263-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 47263-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 47263-2018.docx", "A 47263-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 47263-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 47263-2018.docx", "A 47263-2018")</f>
         <v/>
       </c>
     </row>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,27 +995,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 62195-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 62195-2018.xlsx", "A 62195-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 62195-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 62195-2018.png", "A 62195-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 62195-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 62195-2018.docx", "A 62195-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 62195-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 62195-2018.docx", "A 62195-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 62195-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 62195-2018.docx", "A 62195-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 62195-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 62195-2018.docx", "A 62195-2018")</f>
         <v/>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1082,27 +1082,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 66918-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 66918-2018.xlsx", "A 66918-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 66918-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 66918-2018.png", "A 66918-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 66918-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 66918-2018.docx", "A 66918-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 66918-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 66918-2018.docx", "A 66918-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 66918-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 66918-2018.docx", "A 66918-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 66918-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 66918-2018.docx", "A 66918-2018")</f>
         <v/>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,27 +1169,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 4479-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 4479-2023.xlsx", "A 4479-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 4479-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 4479-2023.png", "A 4479-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 4479-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 4479-2023.docx", "A 4479-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 4479-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 4479-2023.docx", "A 4479-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 4479-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 4479-2023.docx", "A 4479-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 4479-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 4479-2023.docx", "A 4479-2023")</f>
         <v/>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,27 +1254,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 7842-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 7842-2020.xlsx", "A 7842-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 7842-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 7842-2020.png", "A 7842-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 7842-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 7842-2020.docx", "A 7842-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 7842-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 7842-2020.docx", "A 7842-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 7842-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 7842-2020.docx", "A 7842-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 7842-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 7842-2020.docx", "A 7842-2020")</f>
         <v/>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1339,27 +1339,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 19687-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 19687-2020.xlsx", "A 19687-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 19687-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 19687-2020.png", "A 19687-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 19687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 19687-2020.docx", "A 19687-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 19687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 19687-2020.docx", "A 19687-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 19687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 19687-2020.docx", "A 19687-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 19687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 19687-2020.docx", "A 19687-2020")</f>
         <v/>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,27 +1424,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 59480-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 59480-2022.xlsx", "A 59480-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 59480-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 59480-2022.png", "A 59480-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 59480-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 59480-2022.docx", "A 59480-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 59480-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 59480-2022.docx", "A 59480-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 59480-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 59480-2022.docx", "A 59480-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 59480-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 59480-2022.docx", "A 59480-2022")</f>
         <v/>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,27 +1509,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 61508-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 61508-2022.xlsx", "A 61508-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 61508-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 61508-2022.png", "A 61508-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 61508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 61508-2022.docx", "A 61508-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 61508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 61508-2022.docx", "A 61508-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 61508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 61508-2022.docx", "A 61508-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 61508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 61508-2022.docx", "A 61508-2022")</f>
         <v/>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1594,27 +1594,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 15734-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/artfynd/A 15734-2023.xlsx", "A 15734-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 15734-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/kartor/A 15734-2023.png", "A 15734-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 15734-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomål/A 15734-2023.docx", "A 15734-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 15734-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/klagomålsmail/A 15734-2023.docx", "A 15734-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 15734-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsyn/A 15734-2023.docx", "A 15734-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 15734-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANNAS/tillsynsmail/A 15734-2023.docx", "A 15734-2023")</f>
         <v/>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y171"/>
+  <dimension ref="A1:Y172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="R170" s="2" t="inlineStr"/>
     </row>
-    <row r="171">
+    <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
           <t>A 35351-2023</t>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10653,6 +10653,63 @@
         <v>0</v>
       </c>
       <c r="R171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>A 48047-2023</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43599</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43609</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43369</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43438</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43389</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43402</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43560</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43573</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43585</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43605</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43640</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43650</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43782</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43782</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43787</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43798</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43801</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43857</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43868</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43941</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43990</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44006</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44008</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44014</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44016</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44049</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44063</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44106</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44123</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44127</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44145</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44152</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44152</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44158</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44166</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44173</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44207</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44235</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44235</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44265</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44376</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44509</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44581</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44610</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44610</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44742</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44816</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44816</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44819</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44853</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44854</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44897</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44935</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44953</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44953</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44958</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44979</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44979</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44987</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44987</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44988</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45041</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45070</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45086</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45086</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45098</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45103</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45105</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45106</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45139</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45146</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45204</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
